--- a/Figure 3/3A - Frequency of tissues infected by microsporidia/Table S3 Sorted Infected Tissues.xlsx
+++ b/Figure 3/3A - Frequency of tissues infected by microsporidia/Table S3 Sorted Infected Tissues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Shared\Microsporidia database\Paper\Supplemental Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Shared\Microsporidia database\Paper\draft4\Supplemental Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D4E71C-4C68-48CF-9C61-97425EC0627F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BC15B6-AEF9-496F-B565-DF5C6A9E829E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="20730" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="1365" windowWidth="14775" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="594">
   <si>
     <t>oenocytes</t>
   </si>
@@ -1792,13 +1792,28 @@
   </si>
   <si>
     <t>lymphocyte-like cells</t>
+  </si>
+  <si>
+    <t>mesenchyme cells</t>
+  </si>
+  <si>
+    <t>peripheral ganglia</t>
+  </si>
+  <si>
+    <t>pseudobranch</t>
+  </si>
+  <si>
+    <t>meninges</t>
+  </si>
+  <si>
+    <t>hypoderm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2224,13 +2239,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y96"/>
+  <dimension ref="A1:Y97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
@@ -2259,7 +2274,7 @@
     <col min="25" max="25" width="9.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" ht="15.75">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2336,7 +2351,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="6" customFormat="1">
+    <row r="2" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -2413,7 +2428,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="6" customFormat="1">
+    <row r="3" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
@@ -2490,7 +2505,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="6" customFormat="1">
+    <row r="4" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -2565,7 +2580,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="6" customFormat="1">
+    <row r="5" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="5" t="s">
@@ -2636,7 +2651,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="6" customFormat="1">
+    <row r="6" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="5" t="s">
@@ -2707,7 +2722,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="6" customFormat="1">
+    <row r="7" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
@@ -2732,7 +2747,7 @@
         <v>130</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>131</v>
+        <v>593</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>132</v>
@@ -2778,7 +2793,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="6" customFormat="1">
+    <row r="8" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
@@ -2803,7 +2818,7 @@
         <v>149</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>151</v>
@@ -2845,7 +2860,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="6" customFormat="1">
+    <row r="9" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="5" t="s">
@@ -2870,7 +2885,7 @@
         <v>167</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>169</v>
@@ -2881,7 +2896,9 @@
       <c r="M9" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="N9" s="8"/>
+      <c r="N9" s="8" t="s">
+        <v>591</v>
+      </c>
       <c r="O9" s="5" t="s">
         <v>172</v>
       </c>
@@ -2910,7 +2927,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="6" customFormat="1">
+    <row r="10" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="5" t="s">
@@ -2933,7 +2950,7 @@
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>184</v>
@@ -2973,7 +2990,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="6" customFormat="1">
+    <row r="11" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="5" t="s">
@@ -2996,7 +3013,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>200</v>
@@ -3036,7 +3053,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="6" customFormat="1">
+    <row r="12" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="5" t="s">
@@ -3057,7 +3074,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="5" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>215</v>
@@ -3097,7 +3114,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="6" customFormat="1">
+    <row r="13" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="5" t="s">
@@ -3118,7 +3135,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="5" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>230</v>
@@ -3158,7 +3175,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="6" customFormat="1">
+    <row r="14" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="5" t="s">
@@ -3179,7 +3196,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="5" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>245</v>
@@ -3219,7 +3236,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="6" customFormat="1">
+    <row r="15" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="5" t="s">
@@ -3240,7 +3257,7 @@
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>260</v>
@@ -3280,7 +3297,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="6" customFormat="1">
+    <row r="16" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="5" t="s">
@@ -3301,7 +3318,7 @@
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="5" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>273</v>
@@ -3341,7 +3358,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="6" customFormat="1">
+    <row r="17" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="5" t="s">
@@ -3360,7 +3377,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="5" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>286</v>
@@ -3398,7 +3415,7 @@
       </c>
       <c r="Y17" s="8"/>
     </row>
-    <row r="18" spans="1:25" s="6" customFormat="1">
+    <row r="18" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="5" t="s">
@@ -3417,7 +3434,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="5" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>300</v>
@@ -3455,7 +3472,7 @@
       </c>
       <c r="Y18" s="8"/>
     </row>
-    <row r="19" spans="1:25" s="6" customFormat="1">
+    <row r="19" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="5" t="s">
@@ -3472,7 +3489,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="5" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="5" t="s">
@@ -3508,7 +3525,7 @@
       </c>
       <c r="Y19" s="8"/>
     </row>
-    <row r="20" spans="1:25" s="6" customFormat="1">
+    <row r="20" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="5" t="s">
@@ -3525,7 +3542,7 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="5" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -3559,7 +3576,7 @@
       </c>
       <c r="Y20" s="8"/>
     </row>
-    <row r="21" spans="1:25" s="6" customFormat="1">
+    <row r="21" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="5" t="s">
@@ -3576,7 +3593,7 @@
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="5" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -3610,7 +3627,7 @@
       </c>
       <c r="Y21" s="8"/>
     </row>
-    <row r="22" spans="1:25" s="6" customFormat="1">
+    <row r="22" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="5" t="s">
@@ -3627,7 +3644,7 @@
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="5" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -3661,7 +3678,7 @@
       </c>
       <c r="Y22" s="8"/>
     </row>
-    <row r="23" spans="1:25" s="6" customFormat="1">
+    <row r="23" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="6" t="s">
@@ -3678,7 +3695,7 @@
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="5" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -3712,7 +3729,7 @@
       </c>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" spans="1:25" s="6" customFormat="1">
+    <row r="24" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3727,7 +3744,7 @@
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="5" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -3759,7 +3776,7 @@
       </c>
       <c r="Y24" s="8"/>
     </row>
-    <row r="25" spans="1:25" s="6" customFormat="1">
+    <row r="25" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3774,7 +3791,7 @@
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="5" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
@@ -3789,7 +3806,9 @@
         <v>375</v>
       </c>
       <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
+      <c r="R25" s="8" t="s">
+        <v>589</v>
+      </c>
       <c r="S25" s="6" t="s">
         <v>376</v>
       </c>
@@ -3804,7 +3823,7 @@
       </c>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" spans="1:25" s="6" customFormat="1">
+    <row r="26" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3819,7 +3838,7 @@
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="5" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
@@ -3845,7 +3864,7 @@
       </c>
       <c r="Y26" s="8"/>
     </row>
-    <row r="27" spans="1:25" s="6" customFormat="1">
+    <row r="27" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3859,8 +3878,8 @@
         <v>385</v>
       </c>
       <c r="I27" s="8"/>
-      <c r="J27" s="7" t="s">
-        <v>386</v>
+      <c r="J27" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
@@ -3886,7 +3905,7 @@
       </c>
       <c r="Y27" s="8"/>
     </row>
-    <row r="28" spans="1:25" s="6" customFormat="1">
+    <row r="28" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -3900,8 +3919,8 @@
         <v>391</v>
       </c>
       <c r="I28" s="8"/>
-      <c r="J28" s="5" t="s">
-        <v>392</v>
+      <c r="J28" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
@@ -3927,7 +3946,7 @@
       </c>
       <c r="Y28" s="8"/>
     </row>
-    <row r="29" spans="1:25" s="6" customFormat="1">
+    <row r="29" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -3941,8 +3960,8 @@
         <v>397</v>
       </c>
       <c r="I29" s="8"/>
-      <c r="J29" s="10" t="s">
-        <v>398</v>
+      <c r="J29" s="5" t="s">
+        <v>392</v>
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
@@ -3968,7 +3987,7 @@
       </c>
       <c r="Y29" s="8"/>
     </row>
-    <row r="30" spans="1:25" s="6" customFormat="1">
+    <row r="30" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3982,8 +4001,8 @@
         <v>403</v>
       </c>
       <c r="I30" s="8"/>
-      <c r="J30" s="6" t="s">
-        <v>404</v>
+      <c r="J30" s="10" t="s">
+        <v>398</v>
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
@@ -4007,7 +4026,7 @@
       </c>
       <c r="Y30" s="8"/>
     </row>
-    <row r="31" spans="1:25" s="6" customFormat="1">
+    <row r="31" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -4021,7 +4040,9 @@
         <v>408</v>
       </c>
       <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="J31" s="6" t="s">
+        <v>404</v>
+      </c>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
@@ -4044,7 +4065,7 @@
       </c>
       <c r="Y31" s="8"/>
     </row>
-    <row r="32" spans="1:25" s="6" customFormat="1">
+    <row r="32" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -4081,7 +4102,7 @@
       </c>
       <c r="Y32" s="8"/>
     </row>
-    <row r="33" spans="1:25" s="6" customFormat="1">
+    <row r="33" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -4118,7 +4139,7 @@
       </c>
       <c r="Y33" s="8"/>
     </row>
-    <row r="34" spans="1:25" s="6" customFormat="1">
+    <row r="34" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -4155,7 +4176,7 @@
       </c>
       <c r="Y34" s="8"/>
     </row>
-    <row r="35" spans="1:25" s="6" customFormat="1">
+    <row r="35" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -4177,7 +4198,9 @@
       <c r="O35" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="P35" s="8"/>
+      <c r="P35" s="8" t="s">
+        <v>590</v>
+      </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -4188,7 +4211,7 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
     </row>
-    <row r="36" spans="1:25" s="6" customFormat="1">
+    <row r="36" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4210,7 +4233,9 @@
       <c r="O36" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="P36" s="8"/>
+      <c r="P36" s="8" t="s">
+        <v>592</v>
+      </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
@@ -4221,7 +4246,7 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
     </row>
-    <row r="37" spans="1:25" s="6" customFormat="1">
+    <row r="37" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -4254,7 +4279,7 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" spans="1:25" s="6" customFormat="1">
+    <row r="38" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4287,7 +4312,7 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" spans="1:25" s="6" customFormat="1">
+    <row r="39" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4320,7 +4345,7 @@
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" spans="1:25" s="6" customFormat="1">
+    <row r="40" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4353,7 +4378,7 @@
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" spans="1:25" s="6" customFormat="1">
+    <row r="41" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4386,7 +4411,7 @@
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" spans="1:25" s="6" customFormat="1">
+    <row r="42" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4419,7 +4444,7 @@
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" spans="1:25" s="6" customFormat="1">
+    <row r="43" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4452,7 +4477,7 @@
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
     </row>
-    <row r="44" spans="1:25" s="6" customFormat="1">
+    <row r="44" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4485,7 +4510,7 @@
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
     </row>
-    <row r="45" spans="1:25" s="6" customFormat="1">
+    <row r="45" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -4518,7 +4543,7 @@
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" spans="1:25" s="6" customFormat="1">
+    <row r="46" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -4551,7 +4576,7 @@
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" spans="1:25" s="6" customFormat="1">
+    <row r="47" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -4584,7 +4609,7 @@
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" spans="1:25" s="6" customFormat="1">
+    <row r="48" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -4617,7 +4642,7 @@
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
     </row>
-    <row r="49" spans="1:25" s="6" customFormat="1">
+    <row r="49" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -4650,7 +4675,7 @@
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
     </row>
-    <row r="50" spans="1:25" s="6" customFormat="1">
+    <row r="50" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -4683,7 +4708,7 @@
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" spans="1:25" s="6" customFormat="1">
+    <row r="51" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -4716,7 +4741,7 @@
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
     </row>
-    <row r="52" spans="1:25" s="6" customFormat="1">
+    <row r="52" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -4749,7 +4774,7 @@
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" spans="1:25" s="6" customFormat="1">
+    <row r="53" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -4782,7 +4807,7 @@
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" spans="1:25" s="6" customFormat="1">
+    <row r="54" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -4815,7 +4840,7 @@
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" spans="1:25" s="6" customFormat="1">
+    <row r="55" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -4848,7 +4873,7 @@
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" spans="1:25" s="6" customFormat="1">
+    <row r="56" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -4881,7 +4906,7 @@
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" spans="1:25" s="6" customFormat="1">
+    <row r="57" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -4914,7 +4939,7 @@
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
     </row>
-    <row r="58" spans="1:25" s="6" customFormat="1">
+    <row r="58" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -4947,7 +4972,7 @@
       <c r="X58" s="8"/>
       <c r="Y58" s="8"/>
     </row>
-    <row r="59" spans="1:25" s="6" customFormat="1">
+    <row r="59" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -4980,7 +5005,7 @@
       <c r="X59" s="8"/>
       <c r="Y59" s="8"/>
     </row>
-    <row r="60" spans="1:25" s="6" customFormat="1">
+    <row r="60" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -5013,7 +5038,7 @@
       <c r="X60" s="8"/>
       <c r="Y60" s="8"/>
     </row>
-    <row r="61" spans="1:25" s="6" customFormat="1">
+    <row r="61" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -5046,7 +5071,7 @@
       <c r="X61" s="8"/>
       <c r="Y61" s="8"/>
     </row>
-    <row r="62" spans="1:25" s="6" customFormat="1">
+    <row r="62" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -5077,7 +5102,7 @@
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
     </row>
-    <row r="63" spans="1:25" s="6" customFormat="1">
+    <row r="63" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -5108,7 +5133,7 @@
       <c r="X63" s="8"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="64" spans="1:25" s="6" customFormat="1">
+    <row r="64" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -5139,7 +5164,7 @@
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
     </row>
-    <row r="65" spans="1:25" s="6" customFormat="1">
+    <row r="65" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -5168,7 +5193,7 @@
       <c r="X65" s="8"/>
       <c r="Y65" s="8"/>
     </row>
-    <row r="66" spans="1:25" s="6" customFormat="1">
+    <row r="66" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -5197,7 +5222,7 @@
       <c r="X66" s="8"/>
       <c r="Y66" s="8"/>
     </row>
-    <row r="67" spans="1:25" s="6" customFormat="1">
+    <row r="67" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -5226,7 +5251,7 @@
       <c r="X67" s="8"/>
       <c r="Y67" s="8"/>
     </row>
-    <row r="68" spans="1:25" s="6" customFormat="1">
+    <row r="68" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -5255,7 +5280,7 @@
       <c r="X68" s="8"/>
       <c r="Y68" s="8"/>
     </row>
-    <row r="69" spans="1:25" s="6" customFormat="1">
+    <row r="69" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -5284,7 +5309,7 @@
       <c r="X69" s="8"/>
       <c r="Y69" s="8"/>
     </row>
-    <row r="70" spans="1:25" s="6" customFormat="1">
+    <row r="70" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -5313,7 +5338,7 @@
       <c r="X70" s="8"/>
       <c r="Y70" s="8"/>
     </row>
-    <row r="71" spans="1:25" s="6" customFormat="1">
+    <row r="71" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -5342,7 +5367,7 @@
       <c r="X71" s="8"/>
       <c r="Y71" s="8"/>
     </row>
-    <row r="72" spans="1:25" s="6" customFormat="1">
+    <row r="72" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -5371,7 +5396,7 @@
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
-    <row r="73" spans="1:25" s="6" customFormat="1">
+    <row r="73" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -5400,7 +5425,7 @@
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
-    <row r="74" spans="1:25" s="6" customFormat="1">
+    <row r="74" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -5429,7 +5454,7 @@
       <c r="X74" s="8"/>
       <c r="Y74" s="8"/>
     </row>
-    <row r="75" spans="1:25" s="6" customFormat="1">
+    <row r="75" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -5458,7 +5483,7 @@
       <c r="X75" s="8"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" spans="1:25" s="6" customFormat="1">
+    <row r="76" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -5487,7 +5512,7 @@
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
     </row>
-    <row r="77" spans="1:25" s="6" customFormat="1">
+    <row r="77" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -5516,7 +5541,7 @@
       <c r="X77" s="8"/>
       <c r="Y77" s="8"/>
     </row>
-    <row r="78" spans="1:25" s="6" customFormat="1">
+    <row r="78" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -5545,7 +5570,7 @@
       <c r="X78" s="8"/>
       <c r="Y78" s="8"/>
     </row>
-    <row r="79" spans="1:25" s="6" customFormat="1">
+    <row r="79" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -5574,7 +5599,7 @@
       <c r="X79" s="8"/>
       <c r="Y79" s="8"/>
     </row>
-    <row r="80" spans="1:25" s="6" customFormat="1">
+    <row r="80" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -5603,7 +5628,7 @@
       <c r="X80" s="8"/>
       <c r="Y80" s="8"/>
     </row>
-    <row r="81" spans="1:25" s="6" customFormat="1">
+    <row r="81" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -5632,7 +5657,7 @@
       <c r="X81" s="8"/>
       <c r="Y81" s="8"/>
     </row>
-    <row r="82" spans="1:25" s="6" customFormat="1">
+    <row r="82" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -5661,7 +5686,7 @@
       <c r="X82" s="8"/>
       <c r="Y82" s="8"/>
     </row>
-    <row r="83" spans="1:25" s="6" customFormat="1">
+    <row r="83" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -5690,7 +5715,7 @@
       <c r="X83" s="8"/>
       <c r="Y83" s="8"/>
     </row>
-    <row r="84" spans="1:25" s="6" customFormat="1">
+    <row r="84" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -5719,7 +5744,7 @@
       <c r="X84" s="8"/>
       <c r="Y84" s="8"/>
     </row>
-    <row r="85" spans="1:25" s="6" customFormat="1">
+    <row r="85" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -5748,7 +5773,7 @@
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
     </row>
-    <row r="86" spans="1:25" s="6" customFormat="1">
+    <row r="86" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -5777,7 +5802,7 @@
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
     </row>
-    <row r="87" spans="1:25" s="6" customFormat="1">
+    <row r="87" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -5806,7 +5831,7 @@
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
     </row>
-    <row r="88" spans="1:25" s="6" customFormat="1">
+    <row r="88" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -5835,7 +5860,7 @@
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
     </row>
-    <row r="89" spans="1:25" s="6" customFormat="1">
+    <row r="89" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -5864,7 +5889,7 @@
       <c r="X89" s="8"/>
       <c r="Y89" s="8"/>
     </row>
-    <row r="90" spans="1:25" s="6" customFormat="1">
+    <row r="90" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -5893,7 +5918,7 @@
       <c r="X90" s="8"/>
       <c r="Y90" s="8"/>
     </row>
-    <row r="91" spans="1:25" s="6" customFormat="1">
+    <row r="91" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -5922,7 +5947,7 @@
       <c r="X91" s="8"/>
       <c r="Y91" s="8"/>
     </row>
-    <row r="92" spans="1:25" s="6" customFormat="1">
+    <row r="92" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -5951,7 +5976,7 @@
       <c r="X92" s="8"/>
       <c r="Y92" s="8"/>
     </row>
-    <row r="93" spans="1:25" s="6" customFormat="1">
+    <row r="93" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -5980,7 +6005,7 @@
       <c r="X93" s="8"/>
       <c r="Y93" s="8"/>
     </row>
-    <row r="94" spans="1:25" s="6" customFormat="1">
+    <row r="94" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -6009,7 +6034,7 @@
       <c r="X94" s="8"/>
       <c r="Y94" s="8"/>
     </row>
-    <row r="95" spans="1:25" s="6" customFormat="1">
+    <row r="95" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -6036,7 +6061,7 @@
       <c r="X95" s="8"/>
       <c r="Y95" s="8"/>
     </row>
-    <row r="96" spans="1:25" s="6" customFormat="1">
+    <row r="96" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -6063,6 +6088,9 @@
       <c r="X96" s="8"/>
       <c r="Y96" s="8"/>
     </row>
+    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J97" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
